--- a/python_xlwings/python_xlwings.xlsx
+++ b/python_xlwings/python_xlwings.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\users\ximing.wei\desktop\code\python\python_xlwings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Forever\Desktop\code\python\python_xlwings\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7021B8-F824-411B-99EA-655CA09AF1A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6900" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="databases" sheetId="1" r:id="rId1"/>
     <sheet name="tables" sheetId="2" r:id="rId2"/>
-    <sheet name="Python 练习" sheetId="3" r:id="rId3"/>
+    <sheet name="Python 练习" sheetId="6" r:id="rId3"/>
+    <sheet name="Python 练习1" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="155">
   <si>
     <t>归类</t>
   </si>
@@ -495,17 +497,13 @@
   </si>
   <si>
     <t>借据回款</t>
-  </si>
-  <si>
-    <t>sublime</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -559,33 +557,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF99FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -794,21 +775,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -820,7 +786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -952,15 +918,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1238,14 +1201,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.69921875" style="11" customWidth="1"/>
     <col min="2" max="2" width="7.09765625" style="11" bestFit="1" customWidth="1"/>
@@ -1256,7 +1219,7 @@
     <col min="7" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
@@ -1273,7 +1236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
@@ -1288,14 +1251,14 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>7</v>
       </c>
@@ -1310,7 +1273,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="39"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -1325,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="39"/>
       <c r="C6" s="37" t="s">
         <v>14</v>
@@ -1340,7 +1303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="40"/>
       <c r="C7" s="37"/>
       <c r="D7" s="3" t="s">
@@ -1353,14 +1316,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="38" t="s">
         <v>20</v>
       </c>
@@ -1375,7 +1338,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="39"/>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -1390,7 +1353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="39"/>
       <c r="C11" s="37" t="s">
         <v>14</v>
@@ -1405,7 +1368,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="40"/>
       <c r="C12" s="37"/>
       <c r="D12" s="3" t="s">
@@ -1427,28 +1390,28 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" location="ods_new_s.ods_new_s" display="ods_new_s"/>
-    <hyperlink ref="D2" location="dim_new.dim_new" display="dim_new"/>
-    <hyperlink ref="D5" location="dw_new.dw_new" display="dw_new"/>
-    <hyperlink ref="D6" location="dm_eagle.dm_eagle" display="dm_eagle"/>
-    <hyperlink ref="D7" location="dm_report_asset.dm_report_asset" display="dm_report_asset"/>
-    <hyperlink ref="D10" location="dw_new.dw_new" display="dw_new"/>
-    <hyperlink ref="D11" location="dm_eagle.dm_eagle" display="dm_eagle"/>
-    <hyperlink ref="D12" location="dm_report_asset.dm_report_asset" display="dm_report_asset"/>
+    <hyperlink ref="D4" location="ods_new_s.ods_new_s" display="ods_new_s" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" location="dim_new.dim_new" display="dim_new" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D5" location="dw_new.dw_new" display="dw_new" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D6" location="dm_eagle.dm_eagle" display="dm_eagle" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D7" location="dm_report_asset.dm_report_asset" display="dm_report_asset" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D10" location="dw_new.dw_new" display="dw_new" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D11" location="dm_eagle.dm_eagle" display="dm_eagle" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D12" location="dm_report_asset.dm_report_asset" display="dm_report_asset" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.69921875" customWidth="1"/>
     <col min="2" max="2" width="15.296875" bestFit="1" customWidth="1"/>
@@ -1459,7 +1422,7 @@
     <col min="10" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.75" thickBot="1">
+    <row r="1" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
@@ -1488,7 +1451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="41" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1468,7 @@
       <c r="I2" s="24"/>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="42"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1520,7 +1483,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -1535,7 +1498,7 @@
       <c r="I4" s="18"/>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
@@ -1550,7 +1513,7 @@
       <c r="I5" s="18"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="42"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -1565,7 +1528,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="26"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="42"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
@@ -1580,7 +1543,7 @@
       <c r="I7" s="18"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -1595,7 +1558,7 @@
       <c r="I8" s="18"/>
       <c r="J8" s="26"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -1610,7 +1573,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="26"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="42"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -1625,7 +1588,7 @@
       <c r="I10" s="18"/>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="42"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -1640,7 +1603,7 @@
       <c r="I11" s="18"/>
       <c r="J11" s="26"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="42"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -1655,7 +1618,7 @@
       <c r="I12" s="18"/>
       <c r="J12" s="26"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="42"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
@@ -1670,7 +1633,7 @@
       <c r="I13" s="18"/>
       <c r="J13" s="26"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
@@ -1685,7 +1648,7 @@
       <c r="I14" s="18"/>
       <c r="J14" s="26"/>
     </row>
-    <row r="15" spans="2:10" ht="18.75" thickBot="1">
+    <row r="15" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -1700,7 +1663,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="28"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
         <v>5</v>
       </c>
@@ -1717,7 +1680,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
@@ -1732,7 +1695,7 @@
       <c r="I17" s="18"/>
       <c r="J17" s="26"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
@@ -1747,7 +1710,7 @@
       <c r="I18" s="18"/>
       <c r="J18" s="26"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="42"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
@@ -1762,7 +1725,7 @@
       <c r="I19" s="18"/>
       <c r="J19" s="26"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="42"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -1777,7 +1740,7 @@
       <c r="I20" s="18"/>
       <c r="J20" s="26"/>
     </row>
-    <row r="21" spans="2:10" ht="18.75" thickBot="1">
+    <row r="21" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="43"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -1792,7 +1755,7 @@
       <c r="I21" s="27"/>
       <c r="J21" s="28"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="41" t="s">
         <v>12</v>
       </c>
@@ -1809,7 +1772,7 @@
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="42"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
@@ -1824,7 +1787,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="26"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="42"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -1839,7 +1802,7 @@
       <c r="I24" s="18"/>
       <c r="J24" s="26"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="42"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -1854,7 +1817,7 @@
       <c r="I25" s="18"/>
       <c r="J25" s="26"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="42"/>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -1869,7 +1832,7 @@
       <c r="I26" s="18"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="42"/>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
@@ -1884,7 +1847,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="42"/>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -1899,7 +1862,7 @@
       <c r="I28" s="18"/>
       <c r="J28" s="26"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="42"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
@@ -1914,7 +1877,7 @@
       <c r="I29" s="18"/>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="42"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -1929,7 +1892,7 @@
       <c r="I30" s="18"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="42"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -1944,7 +1907,7 @@
       <c r="I31" s="18"/>
       <c r="J31" s="26"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="42"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -1959,7 +1922,7 @@
       <c r="I32" s="18"/>
       <c r="J32" s="26"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="42"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -1974,7 +1937,7 @@
       <c r="I33" s="18"/>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="42"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -1989,7 +1952,7 @@
       <c r="I34" s="18"/>
       <c r="J34" s="26"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="42"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -2004,7 +1967,7 @@
       <c r="I35" s="18"/>
       <c r="J35" s="26"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="42"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -2019,7 +1982,7 @@
       <c r="I36" s="18"/>
       <c r="J36" s="26"/>
     </row>
-    <row r="37" spans="2:10" ht="18.75" thickBot="1">
+    <row r="37" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="43"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -2034,7 +1997,7 @@
       <c r="I37" s="27"/>
       <c r="J37" s="28"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="41" t="s">
         <v>15</v>
       </c>
@@ -2051,7 +2014,7 @@
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="42"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -2066,7 +2029,7 @@
       <c r="I39" s="18"/>
       <c r="J39" s="26"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="42"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -2081,7 +2044,7 @@
       <c r="I40" s="18"/>
       <c r="J40" s="26"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="42"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -2096,7 +2059,7 @@
       <c r="I41" s="18"/>
       <c r="J41" s="26"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="42"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -2111,7 +2074,7 @@
       <c r="I42" s="18"/>
       <c r="J42" s="26"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="42"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -2126,7 +2089,7 @@
       <c r="I43" s="18"/>
       <c r="J43" s="26"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="42"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -2141,7 +2104,7 @@
       <c r="I44" s="18"/>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="42"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -2156,7 +2119,7 @@
       <c r="I45" s="18"/>
       <c r="J45" s="26"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="42"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -2171,7 +2134,7 @@
       <c r="I46" s="18"/>
       <c r="J46" s="26"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="42"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -2186,7 +2149,7 @@
       <c r="I47" s="18"/>
       <c r="J47" s="26"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="42"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -2201,7 +2164,7 @@
       <c r="I48" s="18"/>
       <c r="J48" s="26"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="42"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -2216,7 +2179,7 @@
       <c r="I49" s="18"/>
       <c r="J49" s="26"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="42"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -2231,7 +2194,7 @@
       <c r="I50" s="18"/>
       <c r="J50" s="26"/>
     </row>
-    <row r="51" spans="2:10" ht="18.75" thickBot="1">
+    <row r="51" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="42"/>
       <c r="C51" s="30"/>
       <c r="D51" s="30"/>
@@ -2246,7 +2209,7 @@
       <c r="I51" s="30"/>
       <c r="J51" s="32"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="41" t="s">
         <v>18</v>
       </c>
@@ -2263,7 +2226,7 @@
       <c r="I52" s="24"/>
       <c r="J52" s="25"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="42"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
@@ -2278,7 +2241,7 @@
       <c r="I53" s="33"/>
       <c r="J53" s="34"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="42"/>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
@@ -2293,7 +2256,7 @@
       <c r="I54" s="33"/>
       <c r="J54" s="34"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="42"/>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
@@ -2308,7 +2271,7 @@
       <c r="I55" s="33"/>
       <c r="J55" s="34"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="42"/>
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
@@ -2323,7 +2286,7 @@
       <c r="I56" s="33"/>
       <c r="J56" s="34"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="42"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -2338,7 +2301,7 @@
       <c r="I57" s="18"/>
       <c r="J57" s="26"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="42"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -2353,7 +2316,7 @@
       <c r="I58" s="18"/>
       <c r="J58" s="26"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="42"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -2368,7 +2331,7 @@
       <c r="I59" s="18"/>
       <c r="J59" s="26"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="42"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
@@ -2383,7 +2346,7 @@
       <c r="I60" s="18"/>
       <c r="J60" s="26"/>
     </row>
-    <row r="61" spans="2:10" ht="18.75" thickBot="1">
+    <row r="61" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="43"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -2408,145 +2371,101 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" location="db_ods_new_s" display="ods_new_s"/>
-    <hyperlink ref="B22" location="db_eagle_dw" display="eagle_dw"/>
-    <hyperlink ref="B38" location="db_eagle_dm" display="eagle_dm"/>
-    <hyperlink ref="B16" location="db_dim_new" display="dim_new"/>
-    <hyperlink ref="F16" location="dim_new.biz_conf" display="biz_conf"/>
-    <hyperlink ref="F20" location="dim_new.dim_cust_info" display="dim_cust_info"/>
-    <hyperlink ref="F21" location="dim_new.dim_user_info" display="dim_user_info"/>
-    <hyperlink ref="F2" location="ods_new_s.credit_apply" display="credit_apply"/>
-    <hyperlink ref="F3" location="ods_new_s.pre_apply" display="pre_apply"/>
-    <hyperlink ref="F4" location="ods_new_s.loan_apply" display="loan_apply"/>
-    <hyperlink ref="F5" location="ods_new_s.customer_info" display="customer_info"/>
-    <hyperlink ref="F6" location="ods_new_s.user_info" display="user_info"/>
-    <hyperlink ref="F7" location="ods_new_s.credit_limit" display="credit_limit"/>
-    <hyperlink ref="F9" location="ods_new_s.linkman_info" display="linkman_info"/>
-    <hyperlink ref="F8" location="ods_new_s.risk_control_feature" display="risk_control_feature"/>
-    <hyperlink ref="F10" location="ods_new_s.bind_card_info" display="bind_card_info"/>
-    <hyperlink ref="F11" location="ods_new_s.loan_info" display="loan_info"/>
-    <hyperlink ref="F12" location="ods_new_s.repay_schedule" display="repay_schedule"/>
-    <hyperlink ref="F13" location="ods_new_s.repay_detail" display="repay_detail"/>
-    <hyperlink ref="F14" location="ods_new_s.adjust_detail" display="adjust_detail"/>
-    <hyperlink ref="F15" location="ods_new_s.order_info" display="order_info"/>
-    <hyperlink ref="F22" location="dw_new.credit_prd_term_stat" display="credit_prd_term_stat"/>
-    <hyperlink ref="F23" location="dw_new.credit_prj_term_stat" display="credit_prj_term_stat"/>
-    <hyperlink ref="F24" location="dw_new.credit_prd_stat" display="credit_prd_stat"/>
-    <hyperlink ref="F25" location="dw_new.credit_prj_stat" display="credit_prj_stat"/>
-    <hyperlink ref="F26" location="dw_new.credit_prd_term_range_stat" display="credit_prd_term_range_stat"/>
-    <hyperlink ref="F27" location="dw_new.credit_prj_term_range_stat" display="credit_prj_term_range_stat"/>
-    <hyperlink ref="F28" location="dw_new.credit_prd_range_stat" display="credit_prd_range_stat"/>
-    <hyperlink ref="F29" location="dw_new.credit_prj_range_stat" display="credit_prj_range_stat"/>
-    <hyperlink ref="F30" location="dw_new.loan_base_stat" display="loan_base_stat"/>
-    <hyperlink ref="F31" location="dw_new.loan_prj_base_stat" display="loan_prj_base_stat"/>
-    <hyperlink ref="F32" location="dw_new.loan_prd_stat_1" display="loan_prd_stat_1"/>
-    <hyperlink ref="F33" location="dw_new.loan_prj_stat_1" display="loan_prj_stat_1"/>
-    <hyperlink ref="F34" location="dw_new.loan_prd_stat_2" display="loan_prd_stat_2"/>
-    <hyperlink ref="F35" location="dw_new.loan_prj_stat_2" display="loan_prj_stat_2"/>
-    <hyperlink ref="F36" location="dw_new.loan_prd_stat_3" display="loan_prd_stat_3"/>
-    <hyperlink ref="F37" location="dw_new.loan_prj_stat_3" display="loan_prj_stat_3"/>
-    <hyperlink ref="F38" location="dm_eagle.title_info" display="title_info"/>
-    <hyperlink ref="F39" location="dm_eagle.asset_scale_day" display="asset_scale_day"/>
-    <hyperlink ref="F40" location="dm_eagle.credit_apply_approval_rate" display="credit_apply_approval_rate"/>
-    <hyperlink ref="F41" location="dm_eagle.credit_range_approval_rate" display="credit_range_approval_rate"/>
-    <hyperlink ref="F42" location="dm_eagle.credit_approval_amount_use_rate" display="credit_approval_amount_use_rate"/>
-    <hyperlink ref="F44" location="dm_eagle.inflow_rate" display="inflow_rate"/>
-    <hyperlink ref="F43" location="dm_eagle.inflow_rate_term" display="inflow_rate_term"/>
-    <hyperlink ref="F45" location="dm_eagle.overdue_rate" display="overdue_rate"/>
-    <hyperlink ref="F47" location="dm_eagle.monitor_month" display="monitor_month"/>
-    <hyperlink ref="F46" location="dm_eagle.monitor_month_term" display="monitor_month_term"/>
-    <hyperlink ref="F49" location="dm_eagle.analysis_table_month" display="analysis_table_month"/>
-    <hyperlink ref="F50" location="dm_eagle.analysis_table_main_category" display="analysis_table_main_category"/>
-    <hyperlink ref="F51" location="dm_eagle.analysis_table_main_category_month" display="analysis_table_main_category_month"/>
-    <hyperlink ref="F48" location="dm_eagle.analysis_table" display="analysis_table"/>
-    <hyperlink ref="F17" location="dim_new.product_life_cycle" display="product_life_cycle"/>
-    <hyperlink ref="B52" location="db_report_asset_dm" display="report_asset_dm"/>
-    <hyperlink ref="F52" location="dm_report_asset.asset_pool_sum" display="asset_pool_sum"/>
-    <hyperlink ref="F53" location="dm_report_asset.asset_pool_payment" display="asset_pool_payment"/>
-    <hyperlink ref="F54" location="dm_report_asset.asset_pool_feature_sum" display="asset_pool_feature_sum"/>
-    <hyperlink ref="F55" location="dm_report_asset.overdue_assets" display="overdue_assets"/>
-    <hyperlink ref="F56" location="dm_report_asset.overdue_assets_detail" display="overdue_assets_detail"/>
-    <hyperlink ref="F57" location="dm_report_asset.overdue_assets_90plus" display="overdue_assets_90plus"/>
-    <hyperlink ref="F58" location="dm_report_asset.early_repayment" display="early_repayment"/>
-    <hyperlink ref="F59" location="dm_report_asset.overdue_assets_static" display="overdue_assets_static"/>
-    <hyperlink ref="F60" location="dm_report_asset.loan_status_overdue" display="loan_status_overdue"/>
-    <hyperlink ref="F61" location="dm_report_asset.loan_rebate" display="loan_rebate"/>
-    <hyperlink ref="B22:B37" location="db_dw_new" display="dw_new"/>
-    <hyperlink ref="B38:B51" location="db_dm_eagle" display="dm_eagle"/>
-    <hyperlink ref="B52:B61" location="db_dm_report_asset" display="dm_report_asset"/>
-    <hyperlink ref="F19" location="dim_new.dim_loan_info" display="dim_loan_info"/>
-    <hyperlink ref="F18" location="dim_new.dim_idno" display="dim_idno"/>
+    <hyperlink ref="B2" location="db_ods_new_s" display="ods_new_s" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B22" location="db_eagle_dw" display="eagle_dw" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B38" location="db_eagle_dm" display="eagle_dm" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B16" location="db_dim_new" display="dim_new" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F16" location="dim_new.biz_conf" display="biz_conf" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="F20" location="dim_new.dim_cust_info" display="dim_cust_info" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F21" location="dim_new.dim_user_info" display="dim_user_info" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="F2" location="ods_new_s.credit_apply" display="credit_apply" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="F3" location="ods_new_s.pre_apply" display="pre_apply" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="F4" location="ods_new_s.loan_apply" display="loan_apply" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F5" location="ods_new_s.customer_info" display="customer_info" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="F6" location="ods_new_s.user_info" display="user_info" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="F7" location="ods_new_s.credit_limit" display="credit_limit" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="F9" location="ods_new_s.linkman_info" display="linkman_info" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="F8" location="ods_new_s.risk_control_feature" display="risk_control_feature" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="F10" location="ods_new_s.bind_card_info" display="bind_card_info" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F11" location="ods_new_s.loan_info" display="loan_info" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="F12" location="ods_new_s.repay_schedule" display="repay_schedule" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="F13" location="ods_new_s.repay_detail" display="repay_detail" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="F14" location="ods_new_s.adjust_detail" display="adjust_detail" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="F15" location="ods_new_s.order_info" display="order_info" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="F22" location="dw_new.credit_prd_term_stat" display="credit_prd_term_stat" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="F23" location="dw_new.credit_prj_term_stat" display="credit_prj_term_stat" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="F24" location="dw_new.credit_prd_stat" display="credit_prd_stat" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="F25" location="dw_new.credit_prj_stat" display="credit_prj_stat" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="F26" location="dw_new.credit_prd_term_range_stat" display="credit_prd_term_range_stat" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="F27" location="dw_new.credit_prj_term_range_stat" display="credit_prj_term_range_stat" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="F28" location="dw_new.credit_prd_range_stat" display="credit_prd_range_stat" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="F29" location="dw_new.credit_prj_range_stat" display="credit_prj_range_stat" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="F30" location="dw_new.loan_base_stat" display="loan_base_stat" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="F31" location="dw_new.loan_prj_base_stat" display="loan_prj_base_stat" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="F32" location="dw_new.loan_prd_stat_1" display="loan_prd_stat_1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="F33" location="dw_new.loan_prj_stat_1" display="loan_prj_stat_1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="F34" location="dw_new.loan_prd_stat_2" display="loan_prd_stat_2" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="F35" location="dw_new.loan_prj_stat_2" display="loan_prj_stat_2" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="F36" location="dw_new.loan_prd_stat_3" display="loan_prd_stat_3" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="F37" location="dw_new.loan_prj_stat_3" display="loan_prj_stat_3" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="F38" location="dm_eagle.title_info" display="title_info" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="F39" location="dm_eagle.asset_scale_day" display="asset_scale_day" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="F40" location="dm_eagle.credit_apply_approval_rate" display="credit_apply_approval_rate" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="F41" location="dm_eagle.credit_range_approval_rate" display="credit_range_approval_rate" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="F42" location="dm_eagle.credit_approval_amount_use_rate" display="credit_approval_amount_use_rate" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="F44" location="dm_eagle.inflow_rate" display="inflow_rate" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="F43" location="dm_eagle.inflow_rate_term" display="inflow_rate_term" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="F45" location="dm_eagle.overdue_rate" display="overdue_rate" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="F47" location="dm_eagle.monitor_month" display="monitor_month" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="F46" location="dm_eagle.monitor_month_term" display="monitor_month_term" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="F49" location="dm_eagle.analysis_table_month" display="analysis_table_month" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="F50" location="dm_eagle.analysis_table_main_category" display="analysis_table_main_category" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="F51" location="dm_eagle.analysis_table_main_category_month" display="analysis_table_main_category_month" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="F48" location="dm_eagle.analysis_table" display="analysis_table" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="F17" location="dim_new.product_life_cycle" display="product_life_cycle" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="B52" location="db_report_asset_dm" display="report_asset_dm" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="F52" location="dm_report_asset.asset_pool_sum" display="asset_pool_sum" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="F53" location="dm_report_asset.asset_pool_payment" display="asset_pool_payment" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="F54" location="dm_report_asset.asset_pool_feature_sum" display="asset_pool_feature_sum" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="F55" location="dm_report_asset.overdue_assets" display="overdue_assets" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="F56" location="dm_report_asset.overdue_assets_detail" display="overdue_assets_detail" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="F57" location="dm_report_asset.overdue_assets_90plus" display="overdue_assets_90plus" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="F58" location="dm_report_asset.early_repayment" display="early_repayment" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="F59" location="dm_report_asset.overdue_assets_static" display="overdue_assets_static" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="F60" location="dm_report_asset.loan_status_overdue" display="loan_status_overdue" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="F61" location="dm_report_asset.loan_rebate" display="loan_rebate" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="B22:B37" location="db_dw_new" display="dw_new" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="B38:B51" location="db_dm_eagle" display="dm_eagle" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="B52:B61" location="db_dm_report_asset" display="dm_report_asset" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="F19" location="dim_new.dim_loan_info" display="dim_loan_info" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="F18" location="dim_new.dim_idno" display="dim_idno" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143B861B-74F3-450F-883C-A0587E62C5FD}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D8"/>
-  </mergeCells>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177932CF-80C8-4559-AFA5-5768992A2A60}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/python_xlwings/python_xlwings.xlsx
+++ b/python_xlwings/python_xlwings.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Forever\Desktop\code\python\python_xlwings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7021B8-F824-411B-99EA-655CA09AF1A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657BA808-7D62-43E2-B821-03D1275584FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="databases" sheetId="1" r:id="rId1"/>
     <sheet name="tables" sheetId="2" r:id="rId2"/>
     <sheet name="Python 练习" sheetId="6" r:id="rId3"/>
-    <sheet name="Python 练习1" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="156">
   <si>
     <t>归类</t>
   </si>
@@ -497,13 +496,17 @@
   </si>
   <si>
     <t>借据回款</t>
+  </si>
+  <si>
+    <t>sublime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -557,16 +560,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="14"/>
+      <color indexed="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -622,17 +642,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -765,12 +774,72 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -786,138 +855,150 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1202,202 +1283,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F12"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.59765625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="11"/>
+    <col min="1" max="1" width="2.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="42"/>
+      <c r="C5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="5" t="s">
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="42"/>
+      <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="39"/>
-      <c r="C6" s="37" t="s">
+      <c r="F8" s="43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="42"/>
+      <c r="C9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F9" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="39"/>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F10" s="47" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D4" location="ods_new_s.ods_new_s" display="ods_new_s" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" location="ods_new_s.ods_new_s" display="ods_new_s" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D2" location="dim_new.dim_new" display="dim_new" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D5" location="dw_new.dw_new" display="dw_new" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D6" location="dm_eagle.dm_eagle" display="dm_eagle" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D7" location="dm_report_asset.dm_report_asset" display="dm_report_asset" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D10" location="dw_new.dw_new" display="dw_new" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D11" location="dm_eagle.dm_eagle" display="dm_eagle" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D12" location="dm_report_asset.dm_report_asset" display="dm_report_asset" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D4" location="dw_new.dw_new" display="dw_new" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" location="dm_eagle.dm_eagle" display="dm_eagle" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" location="dm_report_asset.dm_report_asset" display="dm_report_asset" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D8" location="dw_new.dw_new" display="dw_new" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D9" location="dm_eagle.dm_eagle" display="dm_eagle" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D10" location="dm_report_asset.dm_report_asset" display="dm_report_asset" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1423,943 +1490,943 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="42"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="15" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="26"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="15" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="26"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="15" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="26"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="15" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="26"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="15" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="26"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="15" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="26"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="15" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="26"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="15" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="26"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="15" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="26"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="15" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="15" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="G13" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="26"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="15" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="26"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="43"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="23" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="28"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="21" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="42"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="15" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="26"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="15" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="26"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="15" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="26"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="15" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="26"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="23" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="21" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="15" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="26"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="42"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="15" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="26"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="15" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="26"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="42"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="15" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="26"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="42"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="15" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="26"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="42"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="15" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="26"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="42"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="15" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="26"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="15"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="42"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="15" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="26"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="42"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="15" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="26"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="42"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="15" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="G32" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="26"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="42"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="15" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="19" t="s">
+      <c r="G33" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="26"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="42"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="15" t="s">
+      <c r="B34" s="29"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="26"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="15"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="42"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="15" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="19" t="s">
+      <c r="G35" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="26"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="15"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="42"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="15" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="26"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="15"/>
     </row>
     <row r="37" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="43"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="23" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="19" t="s">
+      <c r="G37" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="28"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="21" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="25"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="42"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="15" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="26"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="15"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="42"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="15" t="s">
+      <c r="B40" s="29"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="18" t="s">
+      <c r="G40" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="26"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="42"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="15" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="18" t="s">
+      <c r="G41" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="26"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="42"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="15" t="s">
+      <c r="B42" s="29"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="26"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="42"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="17" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="26"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="15"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="42"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="15" t="s">
+      <c r="B44" s="29"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G44" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="26"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="15"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="42"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="17" t="s">
+      <c r="B45" s="29"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G45" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="26"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="15"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="42"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="17" t="s">
+      <c r="B46" s="29"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="26"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="42"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="17" t="s">
+      <c r="B47" s="29"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G47" s="18" t="s">
+      <c r="G47" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="26"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="17" t="s">
+      <c r="B48" s="29"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="26"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="42"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="17" t="s">
+      <c r="B49" s="29"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G49" s="18" t="s">
+      <c r="G49" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="26"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="42"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="17" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="26"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="15"/>
     </row>
     <row r="51" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="42"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="31" t="s">
+      <c r="B51" s="29"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="G51" s="30" t="s">
+      <c r="G51" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="32"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="35" t="s">
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="25"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="14"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="42"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="36" t="s">
+      <c r="B53" s="29"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="34"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="23"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="42"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="36" t="s">
+      <c r="B54" s="29"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="34"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="23"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="42"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="36" t="s">
+      <c r="B55" s="29"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="34"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="23"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="42"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="36" t="s">
+      <c r="B56" s="29"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="G56" s="33" t="s">
+      <c r="G56" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
-      <c r="J56" s="34"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="23"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="42"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="17" t="s">
+      <c r="B57" s="29"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G57" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="26"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="15"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="42"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="17" t="s">
+      <c r="B58" s="29"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="26"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="15"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="42"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="17" t="s">
+      <c r="B59" s="29"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G59" s="18" t="s">
+      <c r="G59" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="26"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="15"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="42"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="17" t="s">
+      <c r="B60" s="29"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G60" s="18" t="s">
+      <c r="G60" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="26"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="15"/>
     </row>
     <row r="61" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="43"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="29" t="s">
+      <c r="B61" s="30"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="G61" s="27" t="s">
+      <c r="G61" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="28"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2448,24 +2515,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143B861B-74F3-450F-883C-A0587E62C5FD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177932CF-80C8-4559-AFA5-5768992A2A60}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/python_xlwings/python_xlwings.xlsx
+++ b/python_xlwings/python_xlwings.xlsx
@@ -5,22 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Forever\Desktop\code\python\python_xlwings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\forever\desktop\code\python\python_xlwings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657BA808-7D62-43E2-B821-03D1275584FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1702449-4423-4EA7-BC89-3600CED740D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="databases" sheetId="1" r:id="rId1"/>
     <sheet name="tables" sheetId="2" r:id="rId2"/>
     <sheet name="Python 练习" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -498,15 +504,14 @@
     <t>借据回款</t>
   </si>
   <si>
-    <t>sublime</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>超链接测试</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -560,17 +565,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="14"/>
-      <color indexed="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -855,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,9 +931,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -949,55 +991,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,9 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1301,7 +1302,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -1318,34 +1319,34 @@
       </c>
     </row>
     <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="42"/>
@@ -1358,13 +1359,13 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="42"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1373,37 +1374,37 @@
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="33" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="42"/>
@@ -1416,13 +1417,13 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="36" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="42"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="39" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1431,20 +1432,20 @@
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="36" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1474,9 +1475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1519,7 +1518,7 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="44" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="13"/>
@@ -1536,7 +1535,7 @@
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1551,7 +1550,7 @@
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1566,7 +1565,7 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1581,7 +1580,7 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1596,7 +1595,7 @@
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1611,7 +1610,7 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1626,7 +1625,7 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1641,7 +1640,7 @@
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1656,7 +1655,7 @@
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1671,7 +1670,7 @@
       <c r="J11" s="15"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1686,7 +1685,7 @@
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1701,7 +1700,7 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1716,7 +1715,7 @@
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -1731,7 +1730,7 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="44" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="13"/>
@@ -1748,7 +1747,7 @@
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1763,7 +1762,7 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1778,7 +1777,7 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1793,7 +1792,7 @@
       <c r="J19" s="15"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="29"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1808,7 +1807,7 @@
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -1823,7 +1822,7 @@
       <c r="J21" s="17"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="44" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="13"/>
@@ -1840,7 +1839,7 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="29"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1855,7 +1854,7 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="29"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1870,7 +1869,7 @@
       <c r="J24" s="15"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="29"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1885,7 +1884,7 @@
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="29"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1900,7 +1899,7 @@
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1915,7 +1914,7 @@
       <c r="J27" s="15"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
+      <c r="B28" s="45"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1930,7 +1929,7 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="29"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1945,7 +1944,7 @@
       <c r="J29" s="15"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="29"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1960,7 +1959,7 @@
       <c r="J30" s="15"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="29"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1975,7 +1974,7 @@
       <c r="J31" s="15"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="29"/>
+      <c r="B32" s="45"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1990,7 +1989,7 @@
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="29"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -2005,7 +2004,7 @@
       <c r="J33" s="15"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="29"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -2020,7 +2019,7 @@
       <c r="J34" s="15"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="29"/>
+      <c r="B35" s="45"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -2035,7 +2034,7 @@
       <c r="J35" s="15"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
+      <c r="B36" s="45"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -2050,7 +2049,7 @@
       <c r="J36" s="15"/>
     </row>
     <row r="37" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -2065,7 +2064,7 @@
       <c r="J37" s="17"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="44" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="13"/>
@@ -2082,7 +2081,7 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="29"/>
+      <c r="B39" s="45"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -2097,7 +2096,7 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="29"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -2112,7 +2111,7 @@
       <c r="J40" s="15"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="29"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2127,7 +2126,7 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="29"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -2142,7 +2141,7 @@
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="29"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -2157,7 +2156,7 @@
       <c r="J43" s="15"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="29"/>
+      <c r="B44" s="45"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -2172,7 +2171,7 @@
       <c r="J44" s="15"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="29"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -2187,7 +2186,7 @@
       <c r="J45" s="15"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="29"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -2202,7 +2201,7 @@
       <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="29"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -2217,7 +2216,7 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="29"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -2232,7 +2231,7 @@
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="29"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -2247,7 +2246,7 @@
       <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="29"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -2262,7 +2261,7 @@
       <c r="J50" s="15"/>
     </row>
     <row r="51" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="29"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -2277,7 +2276,7 @@
       <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="44" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="13"/>
@@ -2294,7 +2293,7 @@
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="29"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -2309,7 +2308,7 @@
       <c r="J53" s="23"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="29"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
@@ -2324,7 +2323,7 @@
       <c r="J54" s="23"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="29"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -2339,7 +2338,7 @@
       <c r="J55" s="23"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="29"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
@@ -2354,7 +2353,7 @@
       <c r="J56" s="23"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="29"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -2369,7 +2368,7 @@
       <c r="J57" s="15"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="29"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -2384,7 +2383,7 @@
       <c r="J58" s="15"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="29"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -2399,7 +2398,7 @@
       <c r="J59" s="15"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="29"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -2414,7 +2413,7 @@
       <c r="J60" s="15"/>
     </row>
     <row r="61" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="30"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
@@ -2513,24 +2512,83 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143B861B-74F3-450F-883C-A0587E62C5FD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.796875" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>155</v>
       </c>
+      <c r="B1" s="49">
+        <f>SUM(C1 + D1)</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Python 练习'!b2" tooltip="提示：超链接" display="超链接测试" xr:uid="{FC291B3F-BB08-4981-93A7-0B13C71AAD65}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/python_xlwings/python_xlwings.xlsx
+++ b/python_xlwings/python_xlwings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\forever\desktop\code\python\python_xlwings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Forever\Desktop\code\python\python_xlwings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1702449-4423-4EA7-BC89-3600CED740D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AB46DF-157E-4669-A159-373BD9A680CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -849,7 +849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -967,6 +967,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -991,16 +1003,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1334,7 +1337,7 @@
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -1349,7 +1352,7 @@
       <c r="F3" s="35"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1364,8 +1367,8 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="46"/>
+      <c r="C5" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1379,8 +1382,8 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
-      <c r="C6" s="40"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
@@ -1392,7 +1395,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="33" t="s">
@@ -1407,7 +1410,7 @@
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
@@ -1422,8 +1425,8 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="39" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1437,8 +1440,8 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1518,7 +1521,7 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="48" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="13"/>
@@ -1535,7 +1538,7 @@
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1550,7 +1553,7 @@
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1565,7 +1568,7 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1580,7 +1583,7 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1595,7 +1598,7 @@
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1610,7 +1613,7 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1625,7 +1628,7 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1640,7 +1643,7 @@
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1655,7 +1658,7 @@
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1670,7 +1673,7 @@
       <c r="J11" s="15"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1685,7 +1688,7 @@
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1700,7 +1703,7 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1715,7 +1718,7 @@
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -1730,7 +1733,7 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="48" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="13"/>
@@ -1747,7 +1750,7 @@
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1762,7 +1765,7 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1777,7 +1780,7 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1792,7 +1795,7 @@
       <c r="J19" s="15"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1807,7 +1810,7 @@
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="46"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -1822,7 +1825,7 @@
       <c r="J21" s="17"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="13"/>
@@ -1839,7 +1842,7 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1854,7 +1857,7 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1869,7 +1872,7 @@
       <c r="J24" s="15"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1884,7 +1887,7 @@
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1899,7 +1902,7 @@
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1914,7 +1917,7 @@
       <c r="J27" s="15"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1929,7 +1932,7 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1944,7 +1947,7 @@
       <c r="J29" s="15"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1959,7 +1962,7 @@
       <c r="J30" s="15"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1974,7 +1977,7 @@
       <c r="J31" s="15"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1989,7 +1992,7 @@
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="45"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -2004,7 +2007,7 @@
       <c r="J33" s="15"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="45"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -2019,7 +2022,7 @@
       <c r="J34" s="15"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="45"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -2034,7 +2037,7 @@
       <c r="J35" s="15"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="45"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -2049,7 +2052,7 @@
       <c r="J36" s="15"/>
     </row>
     <row r="37" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="46"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -2064,7 +2067,7 @@
       <c r="J37" s="17"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="13"/>
@@ -2081,7 +2084,7 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="45"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -2096,7 +2099,7 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="45"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -2111,7 +2114,7 @@
       <c r="J40" s="15"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="45"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2126,7 +2129,7 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="45"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -2141,7 +2144,7 @@
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="45"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -2156,7 +2159,7 @@
       <c r="J43" s="15"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="45"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -2171,7 +2174,7 @@
       <c r="J44" s="15"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="45"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -2186,7 +2189,7 @@
       <c r="J45" s="15"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="45"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -2201,7 +2204,7 @@
       <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="45"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -2216,7 +2219,7 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="45"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -2231,7 +2234,7 @@
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="45"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -2246,7 +2249,7 @@
       <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="45"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -2261,7 +2264,7 @@
       <c r="J50" s="15"/>
     </row>
     <row r="51" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="45"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -2276,7 +2279,7 @@
       <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="48" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="13"/>
@@ -2293,7 +2296,7 @@
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="45"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -2308,7 +2311,7 @@
       <c r="J53" s="23"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="45"/>
+      <c r="B54" s="49"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
@@ -2323,7 +2326,7 @@
       <c r="J54" s="23"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="45"/>
+      <c r="B55" s="49"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -2338,7 +2341,7 @@
       <c r="J55" s="23"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="45"/>
+      <c r="B56" s="49"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
@@ -2353,7 +2356,7 @@
       <c r="J56" s="23"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="45"/>
+      <c r="B57" s="49"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -2368,7 +2371,7 @@
       <c r="J57" s="15"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="45"/>
+      <c r="B58" s="49"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -2383,7 +2386,7 @@
       <c r="J58" s="15"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="45"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -2398,7 +2401,7 @@
       <c r="J59" s="15"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="45"/>
+      <c r="B60" s="49"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -2413,7 +2416,7 @@
       <c r="J60" s="15"/>
     </row>
     <row r="61" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="46"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
@@ -2514,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143B861B-74F3-450F-883C-A0587E62C5FD}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -2524,65 +2527,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="49">
+      <c r="B1" s="41">
         <f>SUM(C1 + D1)</f>
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/python_xlwings/python_xlwings.xlsx
+++ b/python_xlwings/python_xlwings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Forever\Desktop\code\python\python_xlwings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\forever\desktop\code\python\python_xlwings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AB46DF-157E-4669-A159-373BD9A680CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5C56E6-E3D6-41C6-916A-7CDBF3103038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2535" yWindow="945" windowWidth="15375" windowHeight="7995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="databases" sheetId="1" r:id="rId1"/>
@@ -979,6 +979,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1002,9 +1005,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1337,7 +1337,7 @@
       <c r="F2" s="32"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="33" t="s">
@@ -1352,7 +1352,7 @@
       <c r="F3" s="35"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="46"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="26" t="s">
         <v>11</v>
       </c>
@@ -1367,8 +1367,8 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="43" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1382,8 +1382,8 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47"/>
-      <c r="C6" s="44"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="45"/>
       <c r="D6" s="12" t="s">
         <v>18</v>
       </c>
@@ -1395,7 +1395,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="33" t="s">
@@ -1410,7 +1410,7 @@
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="26" t="s">
         <v>11</v>
       </c>
@@ -1425,8 +1425,8 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="43" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1440,8 +1440,8 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47"/>
-      <c r="C10" s="44"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
@@ -1521,7 +1521,7 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="13"/>
@@ -1538,7 +1538,7 @@
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="49"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1553,7 +1553,7 @@
       <c r="J3" s="15"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="49"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1568,7 +1568,7 @@
       <c r="J4" s="15"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1583,7 +1583,7 @@
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1598,7 +1598,7 @@
       <c r="J6" s="15"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1613,7 +1613,7 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1628,7 +1628,7 @@
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1643,7 +1643,7 @@
       <c r="J9" s="15"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1658,7 +1658,7 @@
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1673,7 +1673,7 @@
       <c r="J11" s="15"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1688,7 +1688,7 @@
       <c r="J12" s="15"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1703,7 +1703,7 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1718,7 +1718,7 @@
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="50"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -1733,7 +1733,7 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="49" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="13"/>
@@ -1750,7 +1750,7 @@
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1765,7 +1765,7 @@
       <c r="J17" s="15"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1780,7 +1780,7 @@
       <c r="J18" s="15"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1795,7 +1795,7 @@
       <c r="J19" s="15"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1810,7 +1810,7 @@
       <c r="J20" s="15"/>
     </row>
     <row r="21" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -1825,7 +1825,7 @@
       <c r="J21" s="17"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="13"/>
@@ -1842,7 +1842,7 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1857,7 +1857,7 @@
       <c r="J23" s="15"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="49"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1872,7 +1872,7 @@
       <c r="J24" s="15"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1887,7 +1887,7 @@
       <c r="J25" s="15"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1902,7 +1902,7 @@
       <c r="J26" s="15"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1917,7 +1917,7 @@
       <c r="J27" s="15"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="49"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1932,7 +1932,7 @@
       <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="49"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1947,7 +1947,7 @@
       <c r="J29" s="15"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1962,7 +1962,7 @@
       <c r="J30" s="15"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="49"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1977,7 +1977,7 @@
       <c r="J31" s="15"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="49"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1992,7 +1992,7 @@
       <c r="J32" s="15"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="49"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -2007,7 +2007,7 @@
       <c r="J33" s="15"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="49"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -2022,7 +2022,7 @@
       <c r="J34" s="15"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="49"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -2037,7 +2037,7 @@
       <c r="J35" s="15"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="49"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -2052,7 +2052,7 @@
       <c r="J36" s="15"/>
     </row>
     <row r="37" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="50"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
@@ -2067,7 +2067,7 @@
       <c r="J37" s="17"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="13"/>
@@ -2084,7 +2084,7 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="49"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -2099,7 +2099,7 @@
       <c r="J39" s="15"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="49"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -2114,7 +2114,7 @@
       <c r="J40" s="15"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="49"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -2129,7 +2129,7 @@
       <c r="J41" s="15"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="49"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -2144,7 +2144,7 @@
       <c r="J42" s="15"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="49"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -2159,7 +2159,7 @@
       <c r="J43" s="15"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="49"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -2174,7 +2174,7 @@
       <c r="J44" s="15"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="49"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -2189,7 +2189,7 @@
       <c r="J45" s="15"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="49"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -2204,7 +2204,7 @@
       <c r="J46" s="15"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="49"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -2219,7 +2219,7 @@
       <c r="J47" s="15"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="49"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -2234,7 +2234,7 @@
       <c r="J48" s="15"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -2249,7 +2249,7 @@
       <c r="J49" s="15"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="49"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -2264,7 +2264,7 @@
       <c r="J50" s="15"/>
     </row>
     <row r="51" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="49"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
@@ -2279,7 +2279,7 @@
       <c r="J51" s="21"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="49" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="13"/>
@@ -2296,7 +2296,7 @@
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="49"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="22"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -2311,7 +2311,7 @@
       <c r="J53" s="23"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="49"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
@@ -2326,7 +2326,7 @@
       <c r="J54" s="23"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="49"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="22"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -2341,7 +2341,7 @@
       <c r="J55" s="23"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="49"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
@@ -2356,7 +2356,7 @@
       <c r="J56" s="23"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="49"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
@@ -2371,7 +2371,7 @@
       <c r="J57" s="15"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="49"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -2386,7 +2386,7 @@
       <c r="J58" s="15"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="49"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -2401,7 +2401,7 @@
       <c r="J59" s="15"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="49"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -2416,7 +2416,7 @@
       <c r="J60" s="15"/>
     </row>
     <row r="61" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="50"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
       <c r="E61" s="16"/>
@@ -2541,25 +2541,25 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="42"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="39"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
     </row>

--- a/python_xlwings/python_xlwings.xlsx
+++ b/python_xlwings/python_xlwings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\forever\desktop\code\python\python_xlwings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5C56E6-E3D6-41C6-916A-7CDBF3103038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52FF8EA-065A-4A59-B180-363AC79E50EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2535" yWindow="945" windowWidth="15375" windowHeight="7995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2518,7 +2518,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/python_xlwings/python_xlwings.xlsx
+++ b/python_xlwings/python_xlwings.xlsx
@@ -1,32 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\forever\desktop\code\python\python_xlwings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ximing.wei\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52FF8EA-065A-4A59-B180-363AC79E50EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="945" windowWidth="15375" windowHeight="7995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17565" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="databases" sheetId="1" r:id="rId1"/>
     <sheet name="tables" sheetId="2" r:id="rId2"/>
-    <sheet name="Python 练习" sheetId="6" r:id="rId3"/>
+    <sheet name="Python 练习" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -504,14 +497,15 @@
     <t>借据回款</t>
   </si>
   <si>
-    <t>超链接测试</t>
+    <t>sublime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -565,6 +559,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -580,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -636,6 +641,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -768,73 +784,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,16 +820,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -877,127 +881,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
@@ -1005,12 +949,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 3" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1288,199 +1238,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="2.69921875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.09765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="32"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="10"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="35"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
-      <c r="C4" s="26" t="s">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="39"/>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="44" t="s">
+    <row r="6" spans="2:6">
+      <c r="B6" s="39"/>
+      <c r="C6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="12" t="s">
+    <row r="7" spans="2:6">
+      <c r="B7" s="40"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+    <row r="8" spans="2:6">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="47"/>
-      <c r="C8" s="26" t="s">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="39"/>
+      <c r="C10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="47"/>
-      <c r="C9" s="44" t="s">
+    <row r="11" spans="2:6">
+      <c r="B11" s="39"/>
+      <c r="C11" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F11" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="48"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="12" t="s">
+    <row r="12" spans="2:6">
+      <c r="B12" s="40"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F12" s="4" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B4:B7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" location="ods_new_s.ods_new_s" display="ods_new_s" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D2" location="dim_new.dim_new" display="dim_new" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" location="dw_new.dw_new" display="dw_new" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" location="dm_eagle.dm_eagle" display="dm_eagle" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" location="dm_report_asset.dm_report_asset" display="dm_report_asset" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D8" location="dw_new.dw_new" display="dw_new" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D9" location="dm_eagle.dm_eagle" display="dm_eagle" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D10" location="dm_report_asset.dm_report_asset" display="dm_report_asset" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D4" location="ods_new_s.ods_new_s" display="ods_new_s"/>
+    <hyperlink ref="D2" location="dim_new.dim_new" display="dim_new"/>
+    <hyperlink ref="D5" location="dw_new.dw_new" display="dw_new"/>
+    <hyperlink ref="D6" location="dm_eagle.dm_eagle" display="dm_eagle"/>
+    <hyperlink ref="D7" location="dm_report_asset.dm_report_asset" display="dm_report_asset"/>
+    <hyperlink ref="D10" location="dw_new.dw_new" display="dw_new"/>
+    <hyperlink ref="D11" location="dm_eagle.dm_eagle" display="dm_eagle"/>
+    <hyperlink ref="D12" location="dm_report_asset.dm_report_asset" display="dm_report_asset"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="2.69921875" customWidth="1"/>
     <col min="2" max="2" width="15.296875" bestFit="1" customWidth="1"/>
@@ -1491,944 +1458,944 @@
     <col min="10" max="10" width="5.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="2:10" ht="18.75" thickBot="1">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="50"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4" t="s">
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="42"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="50"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="42"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="50"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="42"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="50"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="4" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="42"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="15"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="50"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="4" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="42"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="50"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="4" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="42"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="4" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="42"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="15"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="50"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="4" t="s">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="42"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="50"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="4" t="s">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="42"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="50"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="4" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="42"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="4" t="s">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="42"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="4" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="42"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="12" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="2:10" ht="18.75" thickBot="1">
+      <c r="B15" s="43"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="49" t="s">
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="10" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="4" t="s">
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="42"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4" t="s">
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="42"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4" t="s">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="42"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="4" t="s">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="42"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="51"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="12" t="s">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="2:10" ht="18.75" thickBot="1">
+      <c r="B21" s="43"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="49" t="s">
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="10" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="4" t="s">
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="42"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="4" t="s">
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="42"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="50"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="4" t="s">
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="42"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="50"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="4" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="26"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="42"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="15"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="4" t="s">
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="42"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="50"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="4" t="s">
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="42"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="15"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="4" t="s">
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="42"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="4" t="s">
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="42"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="15"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="50"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="4" t="s">
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="42"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="50"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="4" t="s">
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="42"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="15"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="4" t="s">
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="26"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="42"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="50"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="4" t="s">
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="26"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="42"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="15"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="50"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="4" t="s">
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="42"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="15"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="50"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="4" t="s">
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="42"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="51"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="12" t="s">
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="2:10" ht="18.75" thickBot="1">
+      <c r="B37" s="43"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="49" t="s">
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="10" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="50"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="4" t="s">
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="25"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="42"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="15"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="50"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="4" t="s">
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="26"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="42"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="15"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="50"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="4" t="s">
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="42"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="15"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="50"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="4" t="s">
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="26"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="42"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="15"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="50"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="6" t="s">
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="26"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="42"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="15"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="50"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="4" t="s">
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="42"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="15"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="50"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="6" t="s">
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="26"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="42"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="15"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="50"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="6" t="s">
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="26"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="42"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="15"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="50"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="6" t="s">
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="26"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="42"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="15"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="50"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="6" t="s">
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="26"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="42"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="15"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="50"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="6" t="s">
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="26"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="42"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="15"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="50"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="6" t="s">
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="42"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="15"/>
-    </row>
-    <row r="51" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="50"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20" t="s">
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="26"/>
+    </row>
+    <row r="51" spans="2:10" ht="18.75" thickBot="1">
+      <c r="B51" s="42"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="G51" s="19" t="s">
+      <c r="G51" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="21"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="49" t="s">
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="32"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="24" t="s">
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="14"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="50"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="25" t="s">
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="25"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="42"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="G53" s="22" t="s">
+      <c r="G53" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="23"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" s="50"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="25" t="s">
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="34"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="42"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="23"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="50"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="25" t="s">
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="34"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="42"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="G55" s="22" t="s">
+      <c r="G55" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="23"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="50"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="25" t="s">
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="34"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="42"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="G56" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="23"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="50"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="6" t="s">
+      <c r="H56" s="33"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="34"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="42"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="15"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="50"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="6" t="s">
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="26"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="42"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="15"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="50"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="6" t="s">
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="26"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="42"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="15"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="50"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="6" t="s">
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="26"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="42"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="15"/>
-    </row>
-    <row r="61" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="51"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="18" t="s">
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="26"/>
+    </row>
+    <row r="61" spans="2:10" ht="18.75" thickBot="1">
+      <c r="B61" s="43"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="G61" s="16" t="s">
+      <c r="G61" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="17"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2440,159 +2407,146 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" location="db_ods_new_s" display="ods_new_s" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B22" location="db_eagle_dw" display="eagle_dw" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B38" location="db_eagle_dm" display="eagle_dm" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B16" location="db_dim_new" display="dim_new" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="F16" location="dim_new.biz_conf" display="biz_conf" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="F20" location="dim_new.dim_cust_info" display="dim_cust_info" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="F21" location="dim_new.dim_user_info" display="dim_user_info" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="F2" location="ods_new_s.credit_apply" display="credit_apply" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="F3" location="ods_new_s.pre_apply" display="pre_apply" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="F4" location="ods_new_s.loan_apply" display="loan_apply" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="F5" location="ods_new_s.customer_info" display="customer_info" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="F6" location="ods_new_s.user_info" display="user_info" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="F7" location="ods_new_s.credit_limit" display="credit_limit" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="F9" location="ods_new_s.linkman_info" display="linkman_info" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="F8" location="ods_new_s.risk_control_feature" display="risk_control_feature" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="F10" location="ods_new_s.bind_card_info" display="bind_card_info" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="F11" location="ods_new_s.loan_info" display="loan_info" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="F12" location="ods_new_s.repay_schedule" display="repay_schedule" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="F13" location="ods_new_s.repay_detail" display="repay_detail" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="F14" location="ods_new_s.adjust_detail" display="adjust_detail" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="F15" location="ods_new_s.order_info" display="order_info" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="F22" location="dw_new.credit_prd_term_stat" display="credit_prd_term_stat" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="F23" location="dw_new.credit_prj_term_stat" display="credit_prj_term_stat" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="F24" location="dw_new.credit_prd_stat" display="credit_prd_stat" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="F25" location="dw_new.credit_prj_stat" display="credit_prj_stat" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="F26" location="dw_new.credit_prd_term_range_stat" display="credit_prd_term_range_stat" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="F27" location="dw_new.credit_prj_term_range_stat" display="credit_prj_term_range_stat" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="F28" location="dw_new.credit_prd_range_stat" display="credit_prd_range_stat" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="F29" location="dw_new.credit_prj_range_stat" display="credit_prj_range_stat" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="F30" location="dw_new.loan_base_stat" display="loan_base_stat" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="F31" location="dw_new.loan_prj_base_stat" display="loan_prj_base_stat" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="F32" location="dw_new.loan_prd_stat_1" display="loan_prd_stat_1" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="F33" location="dw_new.loan_prj_stat_1" display="loan_prj_stat_1" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="F34" location="dw_new.loan_prd_stat_2" display="loan_prd_stat_2" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="F35" location="dw_new.loan_prj_stat_2" display="loan_prj_stat_2" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="F36" location="dw_new.loan_prd_stat_3" display="loan_prd_stat_3" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="F37" location="dw_new.loan_prj_stat_3" display="loan_prj_stat_3" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="F38" location="dm_eagle.title_info" display="title_info" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="F39" location="dm_eagle.asset_scale_day" display="asset_scale_day" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="F40" location="dm_eagle.credit_apply_approval_rate" display="credit_apply_approval_rate" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="F41" location="dm_eagle.credit_range_approval_rate" display="credit_range_approval_rate" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="F42" location="dm_eagle.credit_approval_amount_use_rate" display="credit_approval_amount_use_rate" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="F44" location="dm_eagle.inflow_rate" display="inflow_rate" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="F43" location="dm_eagle.inflow_rate_term" display="inflow_rate_term" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="F45" location="dm_eagle.overdue_rate" display="overdue_rate" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="F47" location="dm_eagle.monitor_month" display="monitor_month" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="F46" location="dm_eagle.monitor_month_term" display="monitor_month_term" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
-    <hyperlink ref="F49" location="dm_eagle.analysis_table_month" display="analysis_table_month" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
-    <hyperlink ref="F50" location="dm_eagle.analysis_table_main_category" display="analysis_table_main_category" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
-    <hyperlink ref="F51" location="dm_eagle.analysis_table_main_category_month" display="analysis_table_main_category_month" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
-    <hyperlink ref="F48" location="dm_eagle.analysis_table" display="analysis_table" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
-    <hyperlink ref="F17" location="dim_new.product_life_cycle" display="product_life_cycle" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
-    <hyperlink ref="B52" location="db_report_asset_dm" display="report_asset_dm" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
-    <hyperlink ref="F52" location="dm_report_asset.asset_pool_sum" display="asset_pool_sum" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
-    <hyperlink ref="F53" location="dm_report_asset.asset_pool_payment" display="asset_pool_payment" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
-    <hyperlink ref="F54" location="dm_report_asset.asset_pool_feature_sum" display="asset_pool_feature_sum" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
-    <hyperlink ref="F55" location="dm_report_asset.overdue_assets" display="overdue_assets" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
-    <hyperlink ref="F56" location="dm_report_asset.overdue_assets_detail" display="overdue_assets_detail" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
-    <hyperlink ref="F57" location="dm_report_asset.overdue_assets_90plus" display="overdue_assets_90plus" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
-    <hyperlink ref="F58" location="dm_report_asset.early_repayment" display="early_repayment" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
-    <hyperlink ref="F59" location="dm_report_asset.overdue_assets_static" display="overdue_assets_static" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
-    <hyperlink ref="F60" location="dm_report_asset.loan_status_overdue" display="loan_status_overdue" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
-    <hyperlink ref="F61" location="dm_report_asset.loan_rebate" display="loan_rebate" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
-    <hyperlink ref="B22:B37" location="db_dw_new" display="dw_new" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
-    <hyperlink ref="B38:B51" location="db_dm_eagle" display="dm_eagle" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
-    <hyperlink ref="B52:B61" location="db_dm_report_asset" display="dm_report_asset" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
-    <hyperlink ref="F19" location="dim_new.dim_loan_info" display="dim_loan_info" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
-    <hyperlink ref="F18" location="dim_new.dim_idno" display="dim_idno" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="B2" location="db_ods_new_s" display="ods_new_s"/>
+    <hyperlink ref="B22" location="db_eagle_dw" display="eagle_dw"/>
+    <hyperlink ref="B38" location="db_eagle_dm" display="eagle_dm"/>
+    <hyperlink ref="B16" location="db_dim_new" display="dim_new"/>
+    <hyperlink ref="F16" location="dim_new.biz_conf" display="biz_conf"/>
+    <hyperlink ref="F20" location="dim_new.dim_cust_info" display="dim_cust_info"/>
+    <hyperlink ref="F21" location="dim_new.dim_user_info" display="dim_user_info"/>
+    <hyperlink ref="F2" location="ods_new_s.credit_apply" display="credit_apply"/>
+    <hyperlink ref="F3" location="ods_new_s.pre_apply" display="pre_apply"/>
+    <hyperlink ref="F4" location="ods_new_s.loan_apply" display="loan_apply"/>
+    <hyperlink ref="F5" location="ods_new_s.customer_info" display="customer_info"/>
+    <hyperlink ref="F6" location="ods_new_s.user_info" display="user_info"/>
+    <hyperlink ref="F7" location="ods_new_s.credit_limit" display="credit_limit"/>
+    <hyperlink ref="F9" location="ods_new_s.linkman_info" display="linkman_info"/>
+    <hyperlink ref="F8" location="ods_new_s.risk_control_feature" display="risk_control_feature"/>
+    <hyperlink ref="F10" location="ods_new_s.bind_card_info" display="bind_card_info"/>
+    <hyperlink ref="F11" location="ods_new_s.loan_info" display="loan_info"/>
+    <hyperlink ref="F12" location="ods_new_s.repay_schedule" display="repay_schedule"/>
+    <hyperlink ref="F13" location="ods_new_s.repay_detail" display="repay_detail"/>
+    <hyperlink ref="F14" location="ods_new_s.adjust_detail" display="adjust_detail"/>
+    <hyperlink ref="F15" location="ods_new_s.order_info" display="order_info"/>
+    <hyperlink ref="F22" location="dw_new.credit_prd_term_stat" display="credit_prd_term_stat"/>
+    <hyperlink ref="F23" location="dw_new.credit_prj_term_stat" display="credit_prj_term_stat"/>
+    <hyperlink ref="F24" location="dw_new.credit_prd_stat" display="credit_prd_stat"/>
+    <hyperlink ref="F25" location="dw_new.credit_prj_stat" display="credit_prj_stat"/>
+    <hyperlink ref="F26" location="dw_new.credit_prd_term_range_stat" display="credit_prd_term_range_stat"/>
+    <hyperlink ref="F27" location="dw_new.credit_prj_term_range_stat" display="credit_prj_term_range_stat"/>
+    <hyperlink ref="F28" location="dw_new.credit_prd_range_stat" display="credit_prd_range_stat"/>
+    <hyperlink ref="F29" location="dw_new.credit_prj_range_stat" display="credit_prj_range_stat"/>
+    <hyperlink ref="F30" location="dw_new.loan_base_stat" display="loan_base_stat"/>
+    <hyperlink ref="F31" location="dw_new.loan_prj_base_stat" display="loan_prj_base_stat"/>
+    <hyperlink ref="F32" location="dw_new.loan_prd_stat_1" display="loan_prd_stat_1"/>
+    <hyperlink ref="F33" location="dw_new.loan_prj_stat_1" display="loan_prj_stat_1"/>
+    <hyperlink ref="F34" location="dw_new.loan_prd_stat_2" display="loan_prd_stat_2"/>
+    <hyperlink ref="F35" location="dw_new.loan_prj_stat_2" display="loan_prj_stat_2"/>
+    <hyperlink ref="F36" location="dw_new.loan_prd_stat_3" display="loan_prd_stat_3"/>
+    <hyperlink ref="F37" location="dw_new.loan_prj_stat_3" display="loan_prj_stat_3"/>
+    <hyperlink ref="F38" location="dm_eagle.title_info" display="title_info"/>
+    <hyperlink ref="F39" location="dm_eagle.asset_scale_day" display="asset_scale_day"/>
+    <hyperlink ref="F40" location="dm_eagle.credit_apply_approval_rate" display="credit_apply_approval_rate"/>
+    <hyperlink ref="F41" location="dm_eagle.credit_range_approval_rate" display="credit_range_approval_rate"/>
+    <hyperlink ref="F42" location="dm_eagle.credit_approval_amount_use_rate" display="credit_approval_amount_use_rate"/>
+    <hyperlink ref="F44" location="dm_eagle.inflow_rate" display="inflow_rate"/>
+    <hyperlink ref="F43" location="dm_eagle.inflow_rate_term" display="inflow_rate_term"/>
+    <hyperlink ref="F45" location="dm_eagle.overdue_rate" display="overdue_rate"/>
+    <hyperlink ref="F47" location="dm_eagle.monitor_month" display="monitor_month"/>
+    <hyperlink ref="F46" location="dm_eagle.monitor_month_term" display="monitor_month_term"/>
+    <hyperlink ref="F49" location="dm_eagle.analysis_table_month" display="analysis_table_month"/>
+    <hyperlink ref="F50" location="dm_eagle.analysis_table_main_category" display="analysis_table_main_category"/>
+    <hyperlink ref="F51" location="dm_eagle.analysis_table_main_category_month" display="analysis_table_main_category_month"/>
+    <hyperlink ref="F48" location="dm_eagle.analysis_table" display="analysis_table"/>
+    <hyperlink ref="F17" location="dim_new.product_life_cycle" display="product_life_cycle"/>
+    <hyperlink ref="B52" location="db_report_asset_dm" display="report_asset_dm"/>
+    <hyperlink ref="F52" location="dm_report_asset.asset_pool_sum" display="asset_pool_sum"/>
+    <hyperlink ref="F53" location="dm_report_asset.asset_pool_payment" display="asset_pool_payment"/>
+    <hyperlink ref="F54" location="dm_report_asset.asset_pool_feature_sum" display="asset_pool_feature_sum"/>
+    <hyperlink ref="F55" location="dm_report_asset.overdue_assets" display="overdue_assets"/>
+    <hyperlink ref="F56" location="dm_report_asset.overdue_assets_detail" display="overdue_assets_detail"/>
+    <hyperlink ref="F57" location="dm_report_asset.overdue_assets_90plus" display="overdue_assets_90plus"/>
+    <hyperlink ref="F58" location="dm_report_asset.early_repayment" display="early_repayment"/>
+    <hyperlink ref="F59" location="dm_report_asset.overdue_assets_static" display="overdue_assets_static"/>
+    <hyperlink ref="F60" location="dm_report_asset.loan_status_overdue" display="loan_status_overdue"/>
+    <hyperlink ref="F61" location="dm_report_asset.loan_rebate" display="loan_rebate"/>
+    <hyperlink ref="B22:B37" location="db_dw_new" display="dw_new"/>
+    <hyperlink ref="B38:B51" location="db_dm_eagle" display="dm_eagle"/>
+    <hyperlink ref="B52:B61" location="db_dm_report_asset" display="dm_report_asset"/>
+    <hyperlink ref="F19" location="dim_new.dim_loan_info" display="dim_loan_info"/>
+    <hyperlink ref="F18" location="dim_new.dim_idno" display="dim_idno"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143B861B-74F3-450F-883C-A0587E62C5FD}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="41">
-        <f>SUM(C1 + D1)</f>
-        <v>0</v>
-      </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D8"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Python 练习'!b2" tooltip="提示：超链接" display="超链接测试" xr:uid="{FC291B3F-BB08-4981-93A7-0B13C71AAD65}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>